--- a/project/app_pjb/matlab_files/selorejo/performanceMS.xlsx
+++ b/project/app_pjb/matlab_files/selorejo/performanceMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\msatriadu\BEKI\matlab sms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\msatriadu\BEKI\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4C43E6-6262-46ED-A852-338CC9C6950C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4549322F-94DE-47B3-BC98-0269426B727E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{576BE4A3-CE41-4CCF-A5AA-A3AA8064D4F3}"/>
+    <workbookView xWindow="2280" yWindow="0" windowWidth="9890" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mendalan" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,42 +33,37 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,12 +73,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -106,24 +92,22 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{28CEC687-4DAC-4E31-B570-68218E6B42A3}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -181,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -214,26 +198,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -266,23 +233,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -425,285 +375,770 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EAC542-D91F-4630-AC8F-E3A246FDD8E1}">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17">
       <c r="A1" s="4">
         <v>3</v>
       </c>
       <c r="B1" s="5">
-        <v>3.0454999999999997</v>
-      </c>
-      <c r="D1" s="4">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5">
-        <v>2.77</v>
-      </c>
-      <c r="G1" s="4">
-        <v>3</v>
-      </c>
-      <c r="H1" s="5">
-        <v>2.7519999999999998</v>
-      </c>
-      <c r="J1" s="4">
-        <v>3</v>
-      </c>
-      <c r="K1" s="5">
-        <v>2.5880000000000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3.0455000000000001</v>
+      </c>
+      <c r="D1">
+        <v>5.14</v>
+      </c>
+      <c r="E1">
+        <v>4.625</v>
+      </c>
+      <c r="G1">
+        <v>5.14</v>
+      </c>
+      <c r="H1">
+        <v>4.625</v>
+      </c>
+      <c r="J1">
+        <v>5.14</v>
+      </c>
+      <c r="K1">
+        <v>4.625</v>
+      </c>
+      <c r="M1">
+        <v>9.25</v>
+      </c>
+      <c r="N1">
+        <v>10.28</v>
+      </c>
+      <c r="P1">
+        <f t="shared" ref="P1:Q6" si="0">M1/2</f>
+        <v>4.625</v>
+      </c>
+      <c r="Q1">
+        <f t="shared" si="0"/>
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="4">
         <v>3.25</v>
       </c>
       <c r="B2" s="5">
         <v>3.2345000000000002</v>
       </c>
-      <c r="D2" s="4">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5">
-        <v>3.4449999999999998</v>
-      </c>
-      <c r="G2" s="4">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5">
-        <v>3.4790000000000001</v>
-      </c>
-      <c r="J2" s="4">
-        <v>4</v>
-      </c>
-      <c r="K2" s="5">
-        <v>3.2430000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>4.6050000000000004</v>
+      </c>
+      <c r="E2">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="G2">
+        <v>4.6050000000000004</v>
+      </c>
+      <c r="H2">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="J2">
+        <v>4.6050000000000004</v>
+      </c>
+      <c r="K2">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="M2">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="N2">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>4.6050000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="4">
         <v>3.5</v>
       </c>
       <c r="B3" s="5">
-        <v>3.3985000000000003</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3.99</v>
-      </c>
-      <c r="G3" s="4">
+        <v>3.3984999999999999</v>
+      </c>
+      <c r="D3">
+        <v>4.49</v>
+      </c>
+      <c r="E3">
         <v>4.5</v>
       </c>
-      <c r="H3" s="5">
-        <v>3.7975000000000003</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="G3">
+        <v>4.49</v>
+      </c>
+      <c r="H3">
         <v>4.5</v>
       </c>
-      <c r="K3" s="5">
-        <v>3.5285000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <v>4.49</v>
+      </c>
+      <c r="K3">
+        <v>4.5</v>
+      </c>
+      <c r="M3">
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <v>8.98</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="4">
         <v>3.7</v>
       </c>
       <c r="B4" s="5">
         <v>3.5670000000000002</v>
       </c>
-      <c r="D4" s="4">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4.1875</v>
-      </c>
-      <c r="G4" s="4">
-        <v>5</v>
-      </c>
-      <c r="H4" s="5">
-        <v>4.0945</v>
-      </c>
-      <c r="J4" s="4">
-        <v>5</v>
-      </c>
-      <c r="K4" s="5">
-        <v>3.9695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>4.4349999999999996</v>
+      </c>
+      <c r="E4">
+        <v>4.4550000000000001</v>
+      </c>
+      <c r="G4">
+        <v>4.4349999999999996</v>
+      </c>
+      <c r="H4">
+        <v>4.4550000000000001</v>
+      </c>
+      <c r="J4">
+        <v>4.4349999999999996</v>
+      </c>
+      <c r="K4">
+        <v>4.4550000000000001</v>
+      </c>
+      <c r="M4">
+        <v>8.91</v>
+      </c>
+      <c r="N4">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>4.4550000000000001</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>4.4349999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>3.8179999999999996</v>
-      </c>
-      <c r="D5" s="4">
+        <v>3.8180000000000001</v>
+      </c>
+      <c r="D5">
+        <v>4.28</v>
+      </c>
+      <c r="E5">
+        <v>4.125</v>
+      </c>
+      <c r="G5">
+        <v>4.28</v>
+      </c>
+      <c r="H5">
+        <v>4.125</v>
+      </c>
+      <c r="J5">
+        <v>4.28</v>
+      </c>
+      <c r="K5">
+        <v>4.125</v>
+      </c>
+      <c r="M5">
+        <v>8.25</v>
+      </c>
+      <c r="N5">
+        <v>8.56</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>4.125</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="D6">
+        <v>3.73</v>
+      </c>
+      <c r="E6">
+        <v>3.875</v>
+      </c>
+      <c r="G6">
+        <v>3.73</v>
+      </c>
+      <c r="H6">
+        <v>3.875</v>
+      </c>
+      <c r="J6">
+        <v>3.73</v>
+      </c>
+      <c r="K6">
+        <v>3.875</v>
+      </c>
+      <c r="M6">
+        <v>7.75</v>
+      </c>
+      <c r="N6">
+        <v>7.46</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>3.875</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.77</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2.7519999999999998</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
+      <c r="K11" s="5">
+        <v>2.5880000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="D12" s="4">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3.4449999999999998</v>
+      </c>
+      <c r="G12" s="4">
+        <v>4</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3.4790000000000001</v>
+      </c>
+      <c r="J12" s="4">
+        <v>4</v>
+      </c>
+      <c r="K12" s="5">
+        <v>3.2429999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="D13" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3.99</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="H13" s="5">
+        <v>3.7974999999999999</v>
+      </c>
+      <c r="J13" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="K13" s="5">
+        <v>3.5285000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="D14" s="4">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.1875</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5">
+        <v>4.0945</v>
+      </c>
+      <c r="J14" s="4">
+        <v>5</v>
+      </c>
+      <c r="K14" s="5">
+        <v>3.9695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="D15" s="4">
         <v>5.5</v>
       </c>
-      <c r="E5" s="5">
-        <v>4.5749999999999993</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="E15" s="5">
+        <v>4.5750000000000002</v>
+      </c>
+      <c r="G15" s="4">
         <v>5.5</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H15" s="5">
         <v>4.5389999999999997</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J15" s="4">
         <v>5.5</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K15" s="5">
         <v>4.3650000000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6395E1AF-0A35-4F59-8651-ED521EA6FA50}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="7">
-        <v>2</v>
-      </c>
-      <c r="B1" s="8">
-        <v>2.5869999999999997</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8">
-        <v>2.6120000000000001</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7">
-        <v>2</v>
-      </c>
-      <c r="H1" s="8">
-        <v>2.5395000000000003</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="B2" s="8">
-        <v>2.9545000000000003</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7">
-        <v>2.25</v>
-      </c>
-      <c r="E2" s="8">
-        <v>2.8210000000000002</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="8">
-        <v>3.0289999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
+    <row r="1" spans="1:8">
+      <c r="A1" s="6">
         <v>2.8</v>
       </c>
-      <c r="B3" s="8">
-        <v>3.2284999999999999</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="E3" s="8">
-        <v>3.0285000000000002</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7">
+      <c r="B1" s="6">
+        <v>4.1866666666666701</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="6">
         <v>2.8</v>
       </c>
-      <c r="H3" s="8">
-        <v>3.4169999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="B4" s="8">
-        <v>3.7210000000000001</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7">
+      <c r="E1" s="6">
+        <v>4.1866666666666701</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="H1" s="6">
+        <v>4.1866666666666701</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6">
+        <v>2.62666666666667</v>
+      </c>
+      <c r="B2" s="6">
+        <v>4.0966666666666702</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6">
+        <v>2.62666666666667</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4.0966666666666702</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6">
+        <v>2.62666666666667</v>
+      </c>
+      <c r="H2" s="6">
+        <v>4.0966666666666702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6">
+        <v>2.37</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3.7366666666666699</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6">
+        <v>2.37</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3.7366666666666699</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6">
+        <v>2.37</v>
+      </c>
+      <c r="H3" s="6">
+        <v>3.7366666666666699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6">
+        <v>2.1766666666666699</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3.54</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6">
+        <v>2.1766666666666699</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3.54</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6">
+        <v>2.1766666666666699</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2.9833333333333298</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2.9833333333333298</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2.9833333333333298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
+        <v>1.82</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2.34</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
+        <v>1.82</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2.34</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
+        <v>1.82</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
+        <v>1.67</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
+        <v>1.67</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="6">
+        <v>1.67</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6">
+        <v>1.66</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2.14</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
+        <v>1.66</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.14</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
+        <v>1.66</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6">
+        <v>1.53</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2.08</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
+        <v>1.53</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2.08</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
+        <v>1.53</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
+        <v>1.49</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6">
+        <v>1.49</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
+        <v>1.49</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6">
+        <v>1.48</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1.95</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
+        <v>1.48</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1.95</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
+        <v>1.48</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6">
+        <v>1.39</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1.71</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6">
+        <v>1.39</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1.71</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
+        <v>1.39</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6">
+        <v>1.22</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6">
+        <v>1.22</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
+        <v>1.22</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="8">
-        <v>3.5315000000000003</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="H4" s="8">
-        <v>3.774</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="B5" s="8">
-        <v>4.1405000000000003</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="E5" s="8">
-        <v>3.8265000000000002</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="H5" s="8">
-        <v>4.1575000000000006</v>
+      <c r="B15" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6">
+        <v>3</v>
+      </c>
+      <c r="H15" s="6">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6">
+        <v>3.47</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
+        <v>3.47</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
+        <v>3.47</v>
+      </c>
+      <c r="H16" s="6">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6">
+        <v>3.38</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4.43</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6">
+        <v>3.38</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4.43</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6">
+        <v>3.38</v>
+      </c>
+      <c r="H17" s="6">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6">
+        <v>3.11</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4.2050000000000001</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6">
+        <v>3.11</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.2050000000000001</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6">
+        <v>3.11</v>
+      </c>
+      <c r="H18" s="6">
+        <v>4.2050000000000001</v>
       </c>
     </row>
   </sheetData>
